--- a/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/HKBCCATxnValueForecastErrors.xlsx
+++ b/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/HKBCCATxnValueForecastErrors.xlsx
@@ -12,10 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="171">
-  <si>
-    <t>FinancialInstitution</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>x</t>
   </si>
@@ -272,259 +269,256 @@
     <t>84</t>
   </si>
   <si>
-    <t>HKBCCA</t>
-  </si>
-  <si>
-    <t>-2.11344303501266</t>
-  </si>
-  <si>
-    <t>-2.8302925505951</t>
-  </si>
-  <si>
-    <t>-2.12221027577733</t>
-  </si>
-  <si>
-    <t>0.951485034754043</t>
-  </si>
-  <si>
-    <t>3.90177328055606</t>
-  </si>
-  <si>
-    <t>-2.84461007707627</t>
-  </si>
-  <si>
-    <t>-0.759253926940886</t>
-  </si>
-  <si>
-    <t>0.246697795202827</t>
-  </si>
-  <si>
-    <t>1.61305912581905</t>
-  </si>
-  <si>
-    <t>-5.11652371577641</t>
-  </si>
-  <si>
-    <t>0.260134322646195</t>
-  </si>
-  <si>
-    <t>-0.697412969604557</t>
-  </si>
-  <si>
-    <t>3.60130632465157</t>
-  </si>
-  <si>
-    <t>-2.62115967270152</t>
-  </si>
-  <si>
-    <t>1.11282703318447</t>
-  </si>
-  <si>
-    <t>-0.8185664171762</t>
-  </si>
-  <si>
-    <t>4.08338051960879</t>
-  </si>
-  <si>
-    <t>2.11495354928546</t>
-  </si>
-  <si>
-    <t>1.05397961796082</t>
-  </si>
-  <si>
-    <t>0.275781462016312</t>
-  </si>
-  <si>
-    <t>5.62530733787328</t>
-  </si>
-  <si>
-    <t>1.20407480416416</t>
-  </si>
-  <si>
-    <t>1.2637427642499</t>
-  </si>
-  <si>
-    <t>0.395451808774666</t>
-  </si>
-  <si>
-    <t>4.27970093148724</t>
-  </si>
-  <si>
-    <t>3.91598077060551</t>
-  </si>
-  <si>
-    <t>0.712439164870233</t>
-  </si>
-  <si>
-    <t>2.28258808646416</t>
-  </si>
-  <si>
-    <t>0.138137809737515</t>
-  </si>
-  <si>
-    <t>3.45510508465736</t>
-  </si>
-  <si>
-    <t>-2.06250877773982</t>
-  </si>
-  <si>
-    <t>-3.81642275288206</t>
-  </si>
-  <si>
-    <t>-8.12603513315803</t>
-  </si>
-  <si>
-    <t>-0.796795221983245</t>
-  </si>
-  <si>
-    <t>2.89605198739106</t>
-  </si>
-  <si>
-    <t>-1.06445465141474</t>
-  </si>
-  <si>
-    <t>0.438094402006456</t>
-  </si>
-  <si>
-    <t>2.74517044958479</t>
-  </si>
-  <si>
-    <t>-2.62783620141784</t>
-  </si>
-  <si>
-    <t>1.86411316894309</t>
-  </si>
-  <si>
-    <t>2.05731638147049</t>
-  </si>
-  <si>
-    <t>1.25776534179661</t>
-  </si>
-  <si>
-    <t>4.24609190769137</t>
-  </si>
-  <si>
-    <t>-0.520912005279698</t>
-  </si>
-  <si>
-    <t>2.31639979509249</t>
-  </si>
-  <si>
-    <t>3.15186303376622</t>
-  </si>
-  <si>
-    <t>-2.53958111236862</t>
-  </si>
-  <si>
-    <t>0.887019272660012</t>
-  </si>
-  <si>
-    <t>-2.92641852528814</t>
-  </si>
-  <si>
-    <t>2.89863829194182</t>
-  </si>
-  <si>
-    <t>1.37767348109369</t>
-  </si>
-  <si>
-    <t>2.25656062852207</t>
-  </si>
-  <si>
-    <t>-1.18803071987952</t>
-  </si>
-  <si>
-    <t>-1.0311095758298</t>
-  </si>
-  <si>
-    <t>2.00954932795933</t>
-  </si>
-  <si>
-    <t>2.40462441737084</t>
-  </si>
-  <si>
-    <t>-6.25620211693811</t>
-  </si>
-  <si>
-    <t>0.64240560055265</t>
-  </si>
-  <si>
-    <t>-0.485947380085534</t>
-  </si>
-  <si>
-    <t>0.0747450335131248</t>
-  </si>
-  <si>
-    <t>-5.07400016672365</t>
-  </si>
-  <si>
-    <t>0.550941873046654</t>
-  </si>
-  <si>
-    <t>-3.69439993610494</t>
-  </si>
-  <si>
-    <t>-0.950046899096321</t>
-  </si>
-  <si>
-    <t>0.0476568751949742</t>
-  </si>
-  <si>
-    <t>-2.69465403978903</t>
-  </si>
-  <si>
-    <t>-0.438390081071702</t>
-  </si>
-  <si>
-    <t>-1.1969710004532</t>
-  </si>
-  <si>
-    <t>-2.00203250424764</t>
-  </si>
-  <si>
-    <t>-1.28433330262369</t>
-  </si>
-  <si>
-    <t>-0.792848753026391</t>
-  </si>
-  <si>
-    <t>-0.309854843469623</t>
-  </si>
-  <si>
-    <t>-5.48238479627585</t>
-  </si>
-  <si>
-    <t>2.38127892790848</t>
-  </si>
-  <si>
-    <t>-0.487703806434041</t>
-  </si>
-  <si>
-    <t>-0.0771345200318194</t>
-  </si>
-  <si>
-    <t>-4.5230079561027</t>
-  </si>
-  <si>
-    <t>-16.0033500976057</t>
-  </si>
-  <si>
-    <t>8.15908117102479</t>
-  </si>
-  <si>
-    <t>6.07082506864876</t>
-  </si>
-  <si>
-    <t>0.491316226046891</t>
-  </si>
-  <si>
-    <t>4.08648288647028</t>
-  </si>
-  <si>
-    <t>-0.471058153228043</t>
-  </si>
-  <si>
-    <t>8.19972636350478</t>
+    <t>0.18244280735513</t>
+  </si>
+  <si>
+    <t>25.0059268291073</t>
+  </si>
+  <si>
+    <t>-12.6548990449639</t>
+  </si>
+  <si>
+    <t>20.297841410745</t>
+  </si>
+  <si>
+    <t>0.477117942139273</t>
+  </si>
+  <si>
+    <t>57.8541440825406</t>
+  </si>
+  <si>
+    <t>89.8762477997736</t>
+  </si>
+  <si>
+    <t>-153.661721835916</t>
+  </si>
+  <si>
+    <t>5.18652128350664</t>
+  </si>
+  <si>
+    <t>-102.289558550373</t>
+  </si>
+  <si>
+    <t>-3.00374716807704</t>
+  </si>
+  <si>
+    <t>25.8633007024269</t>
+  </si>
+  <si>
+    <t>-40.4683359469478</t>
+  </si>
+  <si>
+    <t>23.0304191982628</t>
+  </si>
+  <si>
+    <t>-20.3467395146562</t>
+  </si>
+  <si>
+    <t>1.05896186794581</t>
+  </si>
+  <si>
+    <t>-1.3044707030856</t>
+  </si>
+  <si>
+    <t>39.4957014798923</t>
+  </si>
+  <si>
+    <t>14.7415840380416</t>
+  </si>
+  <si>
+    <t>225.836135531057</t>
+  </si>
+  <si>
+    <t>-201.409486159656</t>
+  </si>
+  <si>
+    <t>37.812838431556</t>
+  </si>
+  <si>
+    <t>-46.2339371847446</t>
+  </si>
+  <si>
+    <t>17.9347767350357</t>
+  </si>
+  <si>
+    <t>21.4849309346228</t>
+  </si>
+  <si>
+    <t>74.4094570329016</t>
+  </si>
+  <si>
+    <t>131.435963869002</t>
+  </si>
+  <si>
+    <t>-165.512420286723</t>
+  </si>
+  <si>
+    <t>45.896221462961</t>
+  </si>
+  <si>
+    <t>-85.3960141890078</t>
+  </si>
+  <si>
+    <t>17.8831293472417</t>
+  </si>
+  <si>
+    <t>-20.4168692433249</t>
+  </si>
+  <si>
+    <t>-88.0050987549024</t>
+  </si>
+  <si>
+    <t>-108.685494651095</t>
+  </si>
+  <si>
+    <t>34.6710397670861</t>
+  </si>
+  <si>
+    <t>-66.7326869824195</t>
+  </si>
+  <si>
+    <t>-172.641830492144</t>
+  </si>
+  <si>
+    <t>63.7599797549135</t>
+  </si>
+  <si>
+    <t>-12.5297714911937</t>
+  </si>
+  <si>
+    <t>-89.1016919924596</t>
+  </si>
+  <si>
+    <t>22.5972249987857</t>
+  </si>
+  <si>
+    <t>51.1428149021731</t>
+  </si>
+  <si>
+    <t>-69.0115488874167</t>
+  </si>
+  <si>
+    <t>-0.708147459295958</t>
+  </si>
+  <si>
+    <t>-35.1059184578315</t>
+  </si>
+  <si>
+    <t>58.0220102055068</t>
+  </si>
+  <si>
+    <t>-67.8240901128506</t>
+  </si>
+  <si>
+    <t>-37.8802466326924</t>
+  </si>
+  <si>
+    <t>6.93076515441157</t>
+  </si>
+  <si>
+    <t>-19.8306813968737</t>
+  </si>
+  <si>
+    <t>72.416898852108</t>
+  </si>
+  <si>
+    <t>-42.8006694419361</t>
+  </si>
+  <si>
+    <t>46.5635030207682</t>
+  </si>
+  <si>
+    <t>-97.331639333478</t>
+  </si>
+  <si>
+    <t>-38.1692398104062</t>
+  </si>
+  <si>
+    <t>-46.8714197881832</t>
+  </si>
+  <si>
+    <t>46.8592249727446</t>
+  </si>
+  <si>
+    <t>-29.5315584873916</t>
+  </si>
+  <si>
+    <t>3.16155722138086</t>
+  </si>
+  <si>
+    <t>30.0611874956612</t>
+  </si>
+  <si>
+    <t>-52.3573508229223</t>
+  </si>
+  <si>
+    <t>-66.8417962252723</t>
+  </si>
+  <si>
+    <t>20.049208824919</t>
+  </si>
+  <si>
+    <t>-6.30607457357439</t>
+  </si>
+  <si>
+    <t>-1.71684540416709</t>
+  </si>
+  <si>
+    <t>-20.047479871418</t>
+  </si>
+  <si>
+    <t>31.0978083722628</t>
+  </si>
+  <si>
+    <t>-41.8865727376716</t>
+  </si>
+  <si>
+    <t>40.3094820183125</t>
+  </si>
+  <si>
+    <t>45.5042403825228</t>
+  </si>
+  <si>
+    <t>-76.068728434342</t>
+  </si>
+  <si>
+    <t>88.5873751130847</t>
+  </si>
+  <si>
+    <t>-148.088394733353</t>
+  </si>
+  <si>
+    <t>175.21727972503</t>
+  </si>
+  <si>
+    <t>-44.0080512639561</t>
+  </si>
+  <si>
+    <t>0.931879646100469</t>
+  </si>
+  <si>
+    <t>13.8645028773026</t>
+  </si>
+  <si>
+    <t>688.055543106894</t>
+  </si>
+  <si>
+    <t>253.933582052594</t>
+  </si>
+  <si>
+    <t>-292.378231291334</t>
+  </si>
+  <si>
+    <t>-65.1031868803047</t>
+  </si>
+  <si>
+    <t>9.00382628692091</t>
+  </si>
+  <si>
+    <t>15.747878370835</t>
+  </si>
+  <si>
+    <t>-7.87831619715303</t>
   </si>
 </sst>
 </file>
@@ -580,932 +574,677 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
       </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
-      </c>
-      <c r="C59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>86</v>
-      </c>
-      <c r="C66" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
-      </c>
-      <c r="C69" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
-      </c>
-      <c r="C70" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
-      </c>
-      <c r="C71" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
-      </c>
-      <c r="C72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>86</v>
-      </c>
-      <c r="C73" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>86</v>
-      </c>
-      <c r="C74" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>86</v>
-      </c>
-      <c r="C75" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>86</v>
-      </c>
-      <c r="C76" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
-      </c>
-      <c r="C79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
-      </c>
-      <c r="C80" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>86</v>
-      </c>
-      <c r="C81" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
-      </c>
-      <c r="C82" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
-      </c>
-      <c r="C83" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
-      </c>
-      <c r="C84" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
-      </c>
-      <c r="C85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
